--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\user\Downloads\re\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\FloombyBoost\C-_trainingCorrected\AdressBookCorrected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD359883-6716-41B3-828A-C0A306C9F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C8B27D-6405-4440-A33F-89C1ACC39296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{D04C3AFC-9D7C-490A-A1C9-45F75C3F6966}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D04C3AFC-9D7C-490A-A1C9-45F75C3F6966}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,51 +34,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>,,-MA</t>
-  </si>
-  <si>
-    <t>FDWJF%FaBYIO#QA8I9_C)L</t>
-  </si>
-  <si>
-    <t>*RW</t>
-  </si>
-  <si>
-    <t>;M#F&lt;'2V+GP/D</t>
-  </si>
-  <si>
-    <t>NCY!!)\A^_X.@\F/S`6_6</t>
-  </si>
-  <si>
-    <t>0Q3AV=$F</t>
-  </si>
-  <si>
-    <t>9&lt;^P"O$P&gt;\2&lt;!</t>
-  </si>
-  <si>
-    <t>JI\)=P$M]7.O2EN^)RU'*[</t>
-  </si>
-  <si>
-    <t>Z?:L)&lt;</t>
-  </si>
-  <si>
-    <t>&gt;*H,RXX\*+7W&lt;#K&gt;+@"3</t>
-  </si>
-  <si>
-    <t>W(-USKFU:X%I9L#V*+6G&lt;/]^I0'[S</t>
-  </si>
-  <si>
-    <t>+SM%RQ</t>
-  </si>
-  <si>
-    <t>ZH6-B</t>
-  </si>
-  <si>
-    <t>1HN,N?6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ):H;&amp;1HHE9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>1-row-1column</t>
+  </si>
+  <si>
+    <t>2-row-1column</t>
+  </si>
+  <si>
+    <t>3-row-1column</t>
+  </si>
+  <si>
+    <t>4-row-1column</t>
+  </si>
+  <si>
+    <t>5-row-1column</t>
+  </si>
+  <si>
+    <t>1-row-2column</t>
+  </si>
+  <si>
+    <t>2-row-2column</t>
+  </si>
+  <si>
+    <t>3-row-2column</t>
+  </si>
+  <si>
+    <t>4-row-2column</t>
+  </si>
+  <si>
+    <t>5-row-2column</t>
+  </si>
+  <si>
+    <t>1-row-3column</t>
+  </si>
+  <si>
+    <t>2-row-3column</t>
+  </si>
+  <si>
+    <t>3-row-3column</t>
+  </si>
+  <si>
+    <t>4-row-3column</t>
+  </si>
+  <si>
+    <t>5-row-3column</t>
+  </si>
+  <si>
+    <t>1-row-4column</t>
+  </si>
+  <si>
+    <t>2-row-4column</t>
+  </si>
+  <si>
+    <t>3-row-4column</t>
+  </si>
+  <si>
+    <t>4-row-4column</t>
+  </si>
+  <si>
+    <t>5-row-4column</t>
   </si>
 </sst>
 </file>
@@ -431,65 +446,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4FDA4E-91D0-4092-ABA8-D031D3E3A84E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
